--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -3,14 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1200" windowHeight="800" firstSheet="0" activeTab="0"/>
-  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="firstSheet" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="First Sheet" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Totals Amount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61,6 +88,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="MyTable" ref="A2:C9" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A2:C8">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="0"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Datetime" totalsRowLabel="Totals Amount"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="Letter" totalsRowFunction="custom"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,17 +428,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="1b3e75"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43666</v>
+      </c>
+      <c r="B3">
+        <v>70.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B4">
+        <v>70.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B5">
+        <v>70.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45111.70833333333</v>
+      </c>
+      <c r="B6">
+        <v>79.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45110.70833333333</v>
+      </c>
+      <c r="B7">
+        <v>80.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45109.70833333333</v>
+      </c>
+      <c r="B8">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>SUBTOTAL(109,MyTable[Amount])</f>
+      </c>
+      <c r="C9">
+        <f>ROW()</f>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-  <headerFooter>
-    <firstHeader>Hello Exceljs</firstHeader>
-    <firstFooter>Hello World</firstFooter>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>